--- a/NCAA/Women/Swimming and Diving.xlsx
+++ b/NCAA/Women/Swimming and Diving.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dengjiahao\Desktop\Athlete\NCAA\Women\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C151DA-591C-4570-814C-818A33657A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEA6F86-DDA9-418E-A618-67E4EBFD5661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27630" yWindow="1170" windowWidth="21600" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="1710" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>Year</t>
   </si>
@@ -36,6 +36,9 @@
     <t>NCAA- Qualifiers and Place</t>
   </si>
   <si>
+    <t>Final NCAA Ranking</t>
+  </si>
+  <si>
     <t>Grinnell</t>
   </si>
   <si>
@@ -45,35 +48,66 @@
     <t>1M Diving 25th-Sophie Wojdylo                                  3M Diving 29th-Sophie Wojdylo</t>
   </si>
   <si>
-    <t>100 Back 26th-Maria Venneri 
-200 Back 19th-Maria Venneri 
-400 IM 24th-Maria Venneri</t>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>100 Back 26th-Maria Venneri</t>
+  </si>
+  <si>
+    <t>200 Back 19th-Maria Venneri</t>
+  </si>
+  <si>
+    <t>400 IM 24th-Maria Venneri</t>
   </si>
   <si>
     <t>200 Breast 17th-Hayley Levin                                         200 IM 21st-Hayley Levin                            400 IM 15th-Hayley Levin</t>
   </si>
   <si>
+    <t>51/51</t>
+  </si>
+  <si>
     <t>100 Breast 3rd-Imelda Wistey                                    200 Breast 16th-Imelda Wistey                                    100 Fly 21st-Imelda Wistey                         1M Diving 14th-Kelly Bruce                            3M Diving 19th-Kelly Bruce</t>
   </si>
   <si>
+    <t>31/53</t>
+  </si>
+  <si>
     <t>1M Diving 7th-Sarah Stayer                          3M Diving 15th-Sarah Stayer</t>
   </si>
   <si>
+    <t>40/53</t>
+  </si>
+  <si>
     <t xml:space="preserve">1M Diving 19th-Sarah Stayer                                       3M Diving 16th-Sarah Stayer </t>
   </si>
   <si>
-    <t>1M Diving 12th-Sarah Stayer 
-3M Diving 18th-Sarah Stayer</t>
+    <t>59/59</t>
+  </si>
+  <si>
+    <t>1M Diving 12th-Sarah Stayer</t>
+  </si>
+  <si>
+    <t>3M Diving 18th-Sarah Stayer</t>
+  </si>
+  <si>
+    <t>51/53</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,11 +133,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,225 +420,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>2024</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2023</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2022</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>2021</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>2020</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>2019</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2018</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2016</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2015</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2014</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2013</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2012</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="360" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>2011</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>2010</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>2009</v>
       </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>2008</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>2007</v>
       </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>2006</v>
       </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>2005</v>
       </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>2004</v>
       </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>2003</v>
       </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>